--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,385 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33.42733</v>
-      </c>
-      <c r="C2" t="n">
-        <v>74.09802999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.67306</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02991</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.81828</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54.22461</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.38444</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.74931</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.44228</v>
-      </c>
-      <c r="K2" t="n">
-        <v>704.3425999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.05421</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.63796</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.11548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>36.70236</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13.7095</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.61289</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.91271</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.5788</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.54712</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11.25548</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.42775</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.83892</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30.34454</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>75.97064</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21.689</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21.739</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.09438</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>54.87869</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.61814</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23.86145</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10.07266</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.38306</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.74821</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>37.05085</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.17266</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.52946</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>31.5425</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>10.70409</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>35.05734</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.53127</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35.70944</v>
-      </c>
-      <c r="C3" t="n">
-        <v>62.71556</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.91868</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.46291</v>
-      </c>
-      <c r="G3" t="n">
-        <v>87.78231</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.43807</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.758559999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.56975</v>
-      </c>
-      <c r="K3" t="n">
-        <v>752.15477</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.0151</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9019</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.6401</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40.72325</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13.48253</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.13392</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.3951</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.45298</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.69407</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.53103</v>
-      </c>
-      <c r="V3" t="n">
-        <v>16.4385</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.40265</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.43113</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>85.53867</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>38.57414</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26.84475</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.02158</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>54.83063</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4.12543</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>37.87969</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11.51781</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.434</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.845599999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>37.42641</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.07871</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8.40283</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>20.79234</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>14.2711</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>22.14951</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.89611</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>30.65942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>71.08405</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.42988</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.00201</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64.06474</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.55437</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.04867</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.2943</v>
-      </c>
-      <c r="K4" t="n">
-        <v>668.52391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.20598</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.68855</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.13263</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32.79616</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.11828</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.16474</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.07862</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.02442</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.09409</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.6209</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.29365</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.2608</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.57347</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>89.76299</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32.09594</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23.46664</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.69403</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>39.9727</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.081</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29.86753</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.97454</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14.2402</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.93811</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>37.43639</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.14002</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.18347</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>20.13773</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>13.69352</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>16.61872</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.47544</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
